--- a/Conception/GestiBank - Modeles et Services.xlsx
+++ b/Conception/GestiBank - Modeles et Services.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="169">
   <si>
     <t>Nom</t>
   </si>
@@ -460,9 +460,6 @@
     <t>GestiBank - Services</t>
   </si>
   <si>
-    <t>/modeles</t>
-  </si>
-  <si>
     <t>Supprimer un modele ec son id</t>
   </si>
   <si>
@@ -482,6 +479,57 @@
   </si>
   <si>
     <t>Rechercher un modele avec son id</t>
+  </si>
+  <si>
+    <t>ClientDao</t>
+  </si>
+  <si>
+    <t>AdminDao</t>
+  </si>
+  <si>
+    <t>findAdminByName</t>
+  </si>
+  <si>
+    <t>Objet Admin</t>
+  </si>
+  <si>
+    <t>Rechercher un admin avec son nom d'utilisateur</t>
+  </si>
+  <si>
+    <t>Rechercher un client avec son nom d'utilisateur</t>
+  </si>
+  <si>
+    <t>findClientByName</t>
+  </si>
+  <si>
+    <t>ConnexionService</t>
+  </si>
+  <si>
+    <t>Tableau :
+- booléen
+- idUtilisateur
+- nomUtilisateur
+- typeUtilisateur</t>
+  </si>
+  <si>
+    <t>connexion</t>
+  </si>
+  <si>
+    <t>ConnexionController</t>
+  </si>
+  <si>
+    <t>/connexion</t>
+  </si>
+  <si>
+    <t>Tableau :
+- nomUtilisateur
+- motDePasse</t>
+  </si>
+  <si>
+    <t>Authentification d'un utilisateur</t>
+  </si>
+  <si>
+    <t>/modele</t>
   </si>
 </sst>
 </file>
@@ -649,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -713,6 +761,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,15 +1138,15 @@
       <c r="D1" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1115,13 +1166,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1132,9 +1183,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="21" t="s">
         <v>53</v>
       </c>
@@ -1143,9 +1194,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="7" t="s">
         <v>56</v>
       </c>
@@ -1154,9 +1205,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1165,9 +1216,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="7" t="s">
         <v>99</v>
       </c>
@@ -1176,9 +1227,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="15" t="s">
         <v>101</v>
       </c>
@@ -1187,9 +1238,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="7" t="s">
         <v>112</v>
       </c>
@@ -1198,13 +1249,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1215,9 +1266,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
@@ -1226,9 +1277,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8" t="s">
         <v>110</v>
       </c>
@@ -1237,13 +1288,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1254,9 +1305,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1265,9 +1316,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
@@ -1276,13 +1327,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -1293,9 +1344,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="8" t="s">
         <v>105</v>
       </c>
@@ -1304,9 +1355,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="8" t="s">
         <v>32</v>
       </c>
@@ -1315,9 +1366,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="8" t="s">
         <v>102</v>
       </c>
@@ -1326,9 +1377,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="9" t="s">
         <v>33</v>
       </c>
@@ -1337,13 +1388,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -1354,9 +1405,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="16" t="s">
         <v>74</v>
       </c>
@@ -1365,9 +1416,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="7" t="s">
         <v>16</v>
       </c>
@@ -1376,9 +1427,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="7" t="s">
         <v>17</v>
       </c>
@@ -1387,9 +1438,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="7" t="s">
         <v>95</v>
       </c>
@@ -1398,13 +1449,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -1415,9 +1466,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
@@ -1426,9 +1477,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8" t="s">
         <v>20</v>
       </c>
@@ -1437,9 +1488,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1448,13 +1499,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -1465,9 +1516,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="16" t="s">
         <v>36</v>
       </c>
@@ -1476,9 +1527,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="7" t="s">
         <v>78</v>
       </c>
@@ -1487,9 +1538,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="7" t="s">
         <v>103</v>
       </c>
@@ -1498,9 +1549,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="7" t="s">
         <v>37</v>
       </c>
@@ -1509,9 +1560,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="7" t="s">
         <v>39</v>
       </c>
@@ -1520,9 +1571,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="7" t="s">
         <v>38</v>
       </c>
@@ -1531,13 +1582,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -1548,9 +1599,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="17" t="s">
         <v>41</v>
       </c>
@@ -1559,9 +1610,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="8" t="s">
         <v>40</v>
       </c>
@@ -1570,13 +1621,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="16" t="s">
@@ -1587,9 +1638,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="16" t="s">
         <v>80</v>
       </c>
@@ -1598,9 +1649,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="7" t="s">
         <v>42</v>
       </c>
@@ -1609,13 +1660,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -1626,9 +1677,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="8" t="s">
         <v>53</v>
       </c>
@@ -1637,9 +1688,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="8" t="s">
         <v>49</v>
       </c>
@@ -1648,9 +1699,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="8" t="s">
         <v>108</v>
       </c>
@@ -1676,13 +1727,13 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="25" t="s">
         <v>43</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -1693,9 +1744,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8" t="s">
         <v>46</v>
       </c>
@@ -1721,13 +1772,13 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -1738,9 +1789,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="8" t="s">
         <v>90</v>
       </c>
@@ -1749,9 +1800,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="8" t="s">
         <v>91</v>
       </c>
@@ -1760,9 +1811,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="8" t="s">
         <v>92</v>
       </c>
@@ -1805,13 +1856,13 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="7" t="s">
@@ -1822,9 +1873,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
       <c r="D60" s="7" t="s">
         <v>52</v>
       </c>
@@ -1833,9 +1884,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
       <c r="D61" s="7" t="s">
         <v>59</v>
       </c>
@@ -1844,9 +1895,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
       <c r="D62" s="7" t="s">
         <v>53</v>
       </c>
@@ -1940,13 +1991,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -1957,9 +2008,9 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
       <c r="D69" s="7" t="s">
         <v>65</v>
       </c>
@@ -2002,13 +2053,13 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -2019,9 +2070,9 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8" t="s">
         <v>72</v>
       </c>
@@ -2030,13 +2081,13 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="24" t="s">
         <v>69</v>
       </c>
       <c r="D74" s="7" t="s">
@@ -2047,9 +2098,9 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
       <c r="D75" s="7" t="s">
         <v>16</v>
       </c>
@@ -2058,9 +2109,9 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
       <c r="D76" s="7" t="s">
         <v>17</v>
       </c>
@@ -2069,9 +2120,9 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
       <c r="D77" s="7" t="s">
         <v>19</v>
       </c>
@@ -2156,7 +2207,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2179,18 +2230,18 @@
       <c r="E1" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -2205,8 +2256,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>150</v>
+      <c r="A5" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>129</v>
@@ -2222,7 +2273,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="20" t="s">
         <v>132</v>
       </c>
@@ -2233,11 +2284,11 @@
         <v>133</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="20" t="s">
         <v>139</v>
       </c>
@@ -2252,7 +2303,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="20" t="s">
         <v>140</v>
       </c>
@@ -2267,7 +2318,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="20" t="s">
         <v>138</v>
       </c>
@@ -2283,34 +2334,54 @@
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
@@ -2390,7 +2461,7 @@
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2404,7 +2475,7 @@
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2472,6 +2543,20 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2493,7 +2578,7 @@
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
@@ -2508,18 +2593,18 @@
       <c r="E1" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
@@ -2534,7 +2619,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>145</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -2551,7 +2636,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="20" t="s">
         <v>132</v>
       </c>
@@ -2562,11 +2647,11 @@
         <v>133</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="20" t="s">
         <v>139</v>
       </c>
@@ -2581,7 +2666,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="20" t="s">
         <v>140</v>
       </c>
@@ -2596,7 +2681,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="20" t="s">
         <v>138</v>
       </c>
@@ -2610,12 +2695,22 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
@@ -2798,45 +2893,45 @@
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="11" t="s">
         <v>0</v>
       </c>
@@ -2857,11 +2952,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>147</v>
+      <c r="B8" s="30" t="s">
+        <v>168</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>129</v>
@@ -2883,13 +2978,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="20" t="s">
         <v>132</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>114</v>
@@ -2905,8 +3000,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="20" t="s">
         <v>139</v>
       </c>
@@ -2927,13 +3022,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="20" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>117</v>
@@ -2949,48 +3044,64 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="30" t="s">
         <v>115</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="26" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>

--- a/Conception/GestiBank - Modeles et Services.xlsx
+++ b/Conception/GestiBank - Modeles et Services.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/Conception/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AC987CD9-1E29-8A43-BD85-1E813B9656A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28755" windowHeight="16395"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28760" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modèles" sheetId="2" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="203">
   <si>
     <t>Nom</t>
   </si>
@@ -212,9 +218,6 @@
   </si>
   <si>
     <t>DemandeOuvertureCompte</t>
-  </si>
-  <si>
-    <t>compte</t>
   </si>
   <si>
     <t>Objet Compte</t>
@@ -531,11 +534,116 @@
   <si>
     <t>/modele</t>
   </si>
+  <si>
+    <t>EspaceConseillerService</t>
+  </si>
+  <si>
+    <t>findAllClients</t>
+  </si>
+  <si>
+    <t>findClientAccount</t>
+  </si>
+  <si>
+    <t>openClientAccount</t>
+  </si>
+  <si>
+    <t>findClientCompte</t>
+  </si>
+  <si>
+    <t>openClientCompte</t>
+  </si>
+  <si>
+    <t>findAllDemandes</t>
+  </si>
+  <si>
+    <t>validateDemande</t>
+  </si>
+  <si>
+    <t>refuseDemande</t>
+  </si>
+  <si>
+    <t>Liste Objet&lt;Demande&gt;</t>
+  </si>
+  <si>
+    <t>idConseiller</t>
+  </si>
+  <si>
+    <t>closeClientAccount</t>
+  </si>
+  <si>
+    <t>closeClientCompte</t>
+  </si>
+  <si>
+    <t>updateClientAccount</t>
+  </si>
+  <si>
+    <t>typeDemande</t>
+  </si>
+  <si>
+    <t>Rechercher tous les clients d'un conseiller</t>
+  </si>
+  <si>
+    <t>Rechercher un client avec son id</t>
+  </si>
+  <si>
+    <t>Mettre à jour un client</t>
+  </si>
+  <si>
+    <t>Changer le statut du client ("ouvert")</t>
+  </si>
+  <si>
+    <t>Changer le statut du client ("fermé")</t>
+  </si>
+  <si>
+    <t>Rechercher un compte avec son id</t>
+  </si>
+  <si>
+    <t>Changer le statut du compte ("ouvert")</t>
+  </si>
+  <si>
+    <t>Changer le statut du compte ("fermé")</t>
+  </si>
+  <si>
+    <t>Rechercher toutes les demandes d'un conseiller</t>
+  </si>
+  <si>
+    <t>Refuser une demande</t>
+  </si>
+  <si>
+    <t>Accepter une demande</t>
+  </si>
+  <si>
+    <t>EspaceConseillerController</t>
+  </si>
+  <si>
+    <t>/conseiller</t>
+  </si>
+  <si>
+    <t>/{idConseiller}</t>
+  </si>
+  <si>
+    <t>/clients/{idClient}</t>
+  </si>
+  <si>
+    <t>/client/{idClient}</t>
+  </si>
+  <si>
+    <t>/comptes/{idComptes}</t>
+  </si>
+  <si>
+    <t>/compte/{idComptes}</t>
+  </si>
+  <si>
+    <t>/demandes</t>
+  </si>
+  <si>
+    <t>/demandes/{idDemande}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -766,6 +874,15 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -776,9 +893,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,7 +986,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -905,9 +1019,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,6 +1071,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1115,21 +1263,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1137,18 +1285,18 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1165,14 +1313,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1182,10 +1330,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="21" t="s">
         <v>53</v>
       </c>
@@ -1193,10 +1341,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="7" t="s">
         <v>56</v>
       </c>
@@ -1204,10 +1352,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1215,47 +1363,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1265,10 +1413,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
@@ -1276,25 +1424,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1304,10 +1452,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1315,10 +1463,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
@@ -1326,38 +1474,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="8" t="s">
         <v>32</v>
       </c>
@@ -1365,21 +1513,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="9" t="s">
         <v>33</v>
       </c>
@@ -1387,38 +1535,38 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="7" t="s">
         <v>16</v>
       </c>
@@ -1426,10 +1574,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="7" t="s">
         <v>17</v>
       </c>
@@ -1437,38 +1585,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="25" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
@@ -1476,10 +1624,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="8" t="s">
         <v>20</v>
       </c>
@@ -1487,10 +1635,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1498,27 +1646,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="24" t="s">
+      <c r="B32" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="16" t="s">
         <v>36</v>
       </c>
@@ -1526,32 +1674,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="7" t="s">
         <v>37</v>
       </c>
@@ -1559,10 +1707,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="7" t="s">
         <v>39</v>
       </c>
@@ -1570,10 +1718,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="7" t="s">
         <v>38</v>
       </c>
@@ -1581,27 +1729,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="17" t="s">
         <v>41</v>
       </c>
@@ -1609,10 +1757,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="8" t="s">
         <v>40</v>
       </c>
@@ -1620,53 +1768,53 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="24" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -1676,10 +1824,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="8" t="s">
         <v>53</v>
       </c>
@@ -1687,10 +1835,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="8" t="s">
         <v>49</v>
       </c>
@@ -1698,55 +1846,55 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="25" t="s">
+      <c r="B50" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="8" t="s">
         <v>46</v>
       </c>
@@ -1754,12 +1902,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>43</v>
@@ -1771,65 +1919,65 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>9</v>
@@ -1838,15 +1986,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>9</v>
@@ -1855,14 +2003,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="24" t="s">
+      <c r="B59" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="7" t="s">
@@ -1872,10 +2020,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="7" t="s">
         <v>52</v>
       </c>
@@ -1883,10 +2031,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="7" t="s">
         <v>59</v>
       </c>
@@ -1894,10 +2042,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="7" t="s">
         <v>53</v>
       </c>
@@ -1905,12 +2053,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>50</v>
@@ -1922,12 +2070,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>50</v>
@@ -1939,12 +2087,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>63</v>
@@ -1956,12 +2104,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>63</v>
@@ -1973,12 +2121,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>63</v>
@@ -1990,14 +2138,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="26" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -2007,148 +2155,176 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="8" t="s">
+      <c r="B69" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E69" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71" s="7" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="25" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="28" t="s">
         <v>50</v>
       </c>
+      <c r="D71" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E73" s="8" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>69</v>
-      </c>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
       <c r="D74" s="7" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
       <c r="D75" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
       <c r="D76" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="8" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E77" s="8" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="47">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="B5:B11"/>
@@ -2157,48 +2333,6 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2206,42 +2340,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -2255,106 +2389,106 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>149</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="20" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>133</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
       <c r="B7" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
       <c r="B8" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
       <c r="B9" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>156</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>56</v>
@@ -2363,24 +2497,24 @@
         <v>62</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2569,42 +2703,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
@@ -2618,190 +2752,284 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>145</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>144</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="20" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="E6" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="C9" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
@@ -2852,35 +3080,56 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A11:A23"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2893,45 +3142,45 @@
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="B3" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="11" t="s">
         <v>0</v>
       </c>
@@ -2951,21 +3200,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>168</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>167</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>9</v>
@@ -2974,264 +3223,404 @@
         <v>9</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="12" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="D12" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F12" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="2"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -3354,7 +3743,19 @@
       <c r="H39" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="25">
+    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="B15:B27"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="A8:A13"/>
@@ -3370,7 +3771,7 @@
     <mergeCell ref="B6:B7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Conception/GestiBank - Modeles et Services.xlsx
+++ b/Conception/GestiBank - Modeles et Services.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/Conception/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AC987CD9-1E29-8A43-BD85-1E813B9656A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28760" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28755" windowHeight="16395"/>
   </bookViews>
   <sheets>
     <sheet name="Modèles" sheetId="2" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="207">
   <si>
     <t>Nom</t>
   </si>
@@ -628,22 +622,34 @@
     <t>/client/{idClient}</t>
   </si>
   <si>
-    <t>/comptes/{idComptes}</t>
-  </si>
-  <si>
-    <t>/compte/{idComptes}</t>
-  </si>
-  <si>
     <t>/demandes</t>
   </si>
   <si>
     <t>/demandes/{idDemande}</t>
+  </si>
+  <si>
+    <t>findCompteOperation</t>
+  </si>
+  <si>
+    <t>Liste&lt;Objet Operation&gt;</t>
+  </si>
+  <si>
+    <t>Rechercher la liste des operations d'un compte avec son id</t>
+  </si>
+  <si>
+    <t>/operations/{idCompte}</t>
+  </si>
+  <si>
+    <t>/compte/{idCompte}</t>
+  </si>
+  <si>
+    <t>/comptes/{idCompte}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -805,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -880,31 +886,34 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -986,7 +995,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1019,26 +1028,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1071,23 +1063,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1263,21 +1238,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1285,18 +1260,18 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
@@ -1330,7 +1305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -1341,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -1352,7 +1327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -1363,7 +1338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -1374,7 +1349,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -1385,7 +1360,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -1396,7 +1371,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>21</v>
       </c>
@@ -1413,7 +1388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -1424,7 +1399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -1435,7 +1410,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>25</v>
       </c>
@@ -1452,7 +1427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -1463,7 +1438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -1474,7 +1449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>31</v>
       </c>
@@ -1491,7 +1466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -1502,7 +1477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -1513,7 +1488,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -1524,7 +1499,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -1535,7 +1510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>96</v>
       </c>
@@ -1552,7 +1527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -1563,7 +1538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -1574,7 +1549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -1585,7 +1560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -1596,7 +1571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>95</v>
       </c>
@@ -1613,7 +1588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -1624,7 +1599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -1635,7 +1610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -1646,7 +1621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>35</v>
       </c>
@@ -1663,7 +1638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -1674,7 +1649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -1685,7 +1660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -1696,7 +1671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -1707,7 +1682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -1718,7 +1693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -1729,7 +1704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>55</v>
       </c>
@@ -1746,7 +1721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -1757,7 +1732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -1768,7 +1743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>105</v>
       </c>
@@ -1785,7 +1760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -1796,7 +1771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -1807,7 +1782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>43</v>
       </c>
@@ -1824,7 +1799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -1835,7 +1810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -1846,7 +1821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -1857,7 +1832,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>80</v>
       </c>
@@ -1874,7 +1849,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>82</v>
       </c>
@@ -1891,7 +1866,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -1902,7 +1877,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>83</v>
       </c>
@@ -1919,7 +1894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>87</v>
       </c>
@@ -1936,7 +1911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="28"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
@@ -1947,7 +1922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
@@ -1958,7 +1933,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="28"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
@@ -1969,7 +1944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>84</v>
       </c>
@@ -1986,7 +1961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>85</v>
       </c>
@@ -2003,7 +1978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>50</v>
       </c>
@@ -2020,7 +1995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -2031,7 +2006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -2042,7 +2017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
@@ -2053,7 +2028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>54</v>
       </c>
@@ -2070,7 +2045,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>63</v>
       </c>
@@ -2087,7 +2062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>93</v>
       </c>
@@ -2104,7 +2079,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>66</v>
       </c>
@@ -2121,7 +2096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>67</v>
       </c>
@@ -2138,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>92</v>
       </c>
@@ -2155,7 +2130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>64</v>
       </c>
@@ -2172,7 +2147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>108</v>
       </c>
@@ -2189,7 +2164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>68</v>
       </c>
@@ -2206,7 +2181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
@@ -2217,7 +2192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>69</v>
       </c>
@@ -2234,7 +2209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="27"/>
       <c r="B74" s="27"/>
       <c r="C74" s="27"/>
@@ -2245,7 +2220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
@@ -2256,7 +2231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="27"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
@@ -2267,7 +2242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>70</v>
       </c>
@@ -2286,12 +2261,38 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="C59:C62"/>
@@ -2301,38 +2302,12 @@
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2340,21 +2315,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.95" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>118</v>
       </c>
@@ -2363,19 +2338,19 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -2389,8 +2364,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>148</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -2406,8 +2381,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
       <c r="B6" s="20" t="s">
         <v>131</v>
       </c>
@@ -2421,8 +2396,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
       <c r="B7" s="20" t="s">
         <v>138</v>
       </c>
@@ -2436,8 +2411,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
       <c r="B8" s="20" t="s">
         <v>139</v>
       </c>
@@ -2451,8 +2426,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
       <c r="B9" s="20" t="s">
         <v>137</v>
       </c>
@@ -2703,21 +2678,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.95" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>145</v>
       </c>
@@ -2726,19 +2701,19 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
@@ -2752,8 +2727,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>144</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -2769,8 +2744,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
       <c r="B6" s="20" t="s">
         <v>131</v>
       </c>
@@ -2784,8 +2759,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
       <c r="B7" s="20" t="s">
         <v>138</v>
       </c>
@@ -2799,8 +2774,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
       <c r="B8" s="20" t="s">
         <v>139</v>
       </c>
@@ -2814,8 +2789,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
       <c r="B9" s="20" t="s">
         <v>137</v>
       </c>
@@ -2829,7 +2804,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>160</v>
       </c>
@@ -2846,8 +2821,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -2863,7 +2838,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="25" t="s">
         <v>170</v>
@@ -2878,7 +2853,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="25" t="s">
         <v>171</v>
@@ -2893,7 +2868,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="25" t="s">
         <v>179</v>
@@ -2908,31 +2883,31 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
       <c r="B17" s="25" t="s">
         <v>172</v>
@@ -2947,7 +2922,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="25" t="s">
         <v>173</v>
@@ -2962,7 +2937,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="B19" s="25" t="s">
         <v>180</v>
@@ -2977,66 +2952,74 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C21" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D21" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E21" s="25" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="32" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C22" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E22" s="31" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="25" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="25" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C24" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D24" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E24" s="25" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
@@ -3094,42 +3077,49 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A11:A23"/>
-    <mergeCell ref="A5:A9"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="A5:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.95" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3142,45 +3132,45 @@
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3200,11 +3190,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>167</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -3226,7 +3216,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="20" t="s">
@@ -3248,7 +3238,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="20" t="s">
@@ -3270,7 +3260,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="20" t="s">
@@ -3292,41 +3282,41 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>114</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>163</v>
       </c>
@@ -3352,11 +3342,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>195</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -3378,7 +3368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="25" t="s">
@@ -3400,7 +3390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="25" t="s">
@@ -3422,7 +3412,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="25" t="s">
@@ -3444,41 +3434,41 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="25" t="s">
@@ -3491,7 +3481,7 @@
         <v>113</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>45</v>
@@ -3500,7 +3490,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="25" t="s">
@@ -3513,7 +3503,7 @@
         <v>113</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>45</v>
@@ -3522,7 +3512,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="25" t="s">
@@ -3535,7 +3525,7 @@
         <v>116</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>45</v>
@@ -3544,97 +3534,109 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
-      <c r="C24" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" s="25" t="s">
+      <c r="C24" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F24" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>202</v>
+      <c r="C25" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="C26" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>200</v>
+      </c>
       <c r="G26" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="25" t="s">
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D28" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E28" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="G27" s="25" t="s">
+      <c r="F28" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H28" s="25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-    </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3712,7 +3714,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3722,7 +3724,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3730,9 +3732,9 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3742,20 +3744,18 @@
       <c r="G39" s="4"/>
       <c r="H39" s="1"/>
     </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A15:A27"/>
-    <mergeCell ref="B15:B27"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="A8:A13"/>
@@ -3769,9 +3769,21 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A15:A28"/>
+    <mergeCell ref="B15:B28"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Conception/GestiBank - Modeles et Services.xlsx
+++ b/Conception/GestiBank - Modeles et Services.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="209">
   <si>
     <t>Nom</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Get</t>
   </si>
   <si>
-    <t>/{id}</t>
-  </si>
-  <si>
     <t>Post</t>
   </si>
   <si>
@@ -439,27 +436,12 @@
     <t>deleteModele</t>
   </si>
   <si>
-    <t>ModeleController</t>
-  </si>
-  <si>
-    <t>deleteModeleById</t>
-  </si>
-  <si>
-    <t>updateModeleById</t>
-  </si>
-  <si>
-    <t>Mettre à jour un modele avec son id</t>
-  </si>
-  <si>
     <t>ModeleService</t>
   </si>
   <si>
     <t>GestiBank - Services</t>
   </si>
   <si>
-    <t>Supprimer un modele ec son id</t>
-  </si>
-  <si>
     <t>ConseillerDao</t>
   </si>
   <si>
@@ -499,151 +481,176 @@
     <t>findClientByName</t>
   </si>
   <si>
-    <t>ConnexionService</t>
+    <t>connexion</t>
+  </si>
+  <si>
+    <t>/connexion</t>
   </si>
   <si>
     <t>Tableau :
-- booléen
+- nomUtilisateur
+- motDePasse</t>
+  </si>
+  <si>
+    <t>EspaceConseillerService</t>
+  </si>
+  <si>
+    <t>findAllClients</t>
+  </si>
+  <si>
+    <t>findClientAccount</t>
+  </si>
+  <si>
+    <t>openClientAccount</t>
+  </si>
+  <si>
+    <t>findClientCompte</t>
+  </si>
+  <si>
+    <t>openClientCompte</t>
+  </si>
+  <si>
+    <t>findAllDemandes</t>
+  </si>
+  <si>
+    <t>validateDemande</t>
+  </si>
+  <si>
+    <t>refuseDemande</t>
+  </si>
+  <si>
+    <t>idConseiller</t>
+  </si>
+  <si>
+    <t>closeClientAccount</t>
+  </si>
+  <si>
+    <t>closeClientCompte</t>
+  </si>
+  <si>
+    <t>updateClientAccount</t>
+  </si>
+  <si>
+    <t>typeDemande</t>
+  </si>
+  <si>
+    <t>Rechercher tous les clients d'un conseiller</t>
+  </si>
+  <si>
+    <t>Rechercher un client avec son id</t>
+  </si>
+  <si>
+    <t>Mettre à jour un client</t>
+  </si>
+  <si>
+    <t>Changer le statut du client ("ouvert")</t>
+  </si>
+  <si>
+    <t>Changer le statut du client ("fermé")</t>
+  </si>
+  <si>
+    <t>Rechercher un compte avec son id</t>
+  </si>
+  <si>
+    <t>Changer le statut du compte ("ouvert")</t>
+  </si>
+  <si>
+    <t>Changer le statut du compte ("fermé")</t>
+  </si>
+  <si>
+    <t>Rechercher toutes les demandes d'un conseiller</t>
+  </si>
+  <si>
+    <t>Refuser une demande</t>
+  </si>
+  <si>
+    <t>Accepter une demande</t>
+  </si>
+  <si>
+    <t>EspaceConseillerController</t>
+  </si>
+  <si>
+    <t>/conseiller</t>
+  </si>
+  <si>
+    <t>/{idConseiller}</t>
+  </si>
+  <si>
+    <t>/clients/{idClient}</t>
+  </si>
+  <si>
+    <t>/client/{idClient}</t>
+  </si>
+  <si>
+    <t>/demandes/{idDemande}</t>
+  </si>
+  <si>
+    <t>findCompteOperation</t>
+  </si>
+  <si>
+    <t>Liste&lt;Objet Operation&gt;</t>
+  </si>
+  <si>
+    <t>Rechercher la liste des operations d'un compte avec son id</t>
+  </si>
+  <si>
+    <t>/operations/{idCompte}</t>
+  </si>
+  <si>
+    <t>/compte/{idCompte}</t>
+  </si>
+  <si>
+    <t>/comptes/{idCompte}</t>
+  </si>
+  <si>
+    <t>HashTable&lt;typeDemande, Liste Objet&lt;Demande&gt;</t>
+  </si>
+  <si>
+    <t>/demandes/{idConseiller}</t>
+  </si>
+  <si>
+    <t>EspacePublicService</t>
+  </si>
+  <si>
+    <t>EspacePublicController</t>
+  </si>
+  <si>
+    <t>Tableau :
+- nomValide
+- mdpValide
 - idUtilisateur
 - nomUtilisateur
 - typeUtilisateur</t>
   </si>
   <si>
-    <t>connexion</t>
-  </si>
-  <si>
-    <t>ConnexionController</t>
-  </si>
-  <si>
-    <t>/connexion</t>
-  </si>
-  <si>
-    <t>Tableau :
-- nomUtilisateur
-- motDePasse</t>
-  </si>
-  <si>
-    <t>Authentification d'un utilisateur</t>
-  </si>
-  <si>
-    <t>/modele</t>
-  </si>
-  <si>
-    <t>EspaceConseillerService</t>
-  </si>
-  <si>
-    <t>findAllClients</t>
-  </si>
-  <si>
-    <t>findClientAccount</t>
-  </si>
-  <si>
-    <t>openClientAccount</t>
-  </si>
-  <si>
-    <t>findClientCompte</t>
-  </si>
-  <si>
-    <t>openClientCompte</t>
-  </si>
-  <si>
-    <t>findAllDemandes</t>
-  </si>
-  <si>
-    <t>validateDemande</t>
-  </si>
-  <si>
-    <t>refuseDemande</t>
-  </si>
-  <si>
-    <t>Liste Objet&lt;Demande&gt;</t>
-  </si>
-  <si>
-    <t>idConseiller</t>
-  </si>
-  <si>
-    <t>closeClientAccount</t>
-  </si>
-  <si>
-    <t>closeClientCompte</t>
-  </si>
-  <si>
-    <t>updateClientAccount</t>
-  </si>
-  <si>
-    <t>typeDemande</t>
-  </si>
-  <si>
-    <t>Rechercher tous les clients d'un conseiller</t>
-  </si>
-  <si>
-    <t>Rechercher un client avec son id</t>
-  </si>
-  <si>
-    <t>Mettre à jour un client</t>
-  </si>
-  <si>
-    <t>Changer le statut du client ("ouvert")</t>
-  </si>
-  <si>
-    <t>Changer le statut du client ("fermé")</t>
-  </si>
-  <si>
-    <t>Rechercher un compte avec son id</t>
-  </si>
-  <si>
-    <t>Changer le statut du compte ("ouvert")</t>
-  </si>
-  <si>
-    <t>Changer le statut du compte ("fermé")</t>
-  </si>
-  <si>
-    <t>Rechercher toutes les demandes d'un conseiller</t>
-  </si>
-  <si>
-    <t>Refuser une demande</t>
-  </si>
-  <si>
-    <t>Accepter une demande</t>
-  </si>
-  <si>
-    <t>EspaceConseillerController</t>
-  </si>
-  <si>
-    <t>/conseiller</t>
-  </si>
-  <si>
-    <t>/{idConseiller}</t>
-  </si>
-  <si>
-    <t>/clients/{idClient}</t>
-  </si>
-  <si>
-    <t>/client/{idClient}</t>
-  </si>
-  <si>
-    <t>/demandes</t>
-  </si>
-  <si>
-    <t>/demandes/{idDemande}</t>
-  </si>
-  <si>
-    <t>findCompteOperation</t>
-  </si>
-  <si>
-    <t>Liste&lt;Objet Operation&gt;</t>
-  </si>
-  <si>
-    <t>Rechercher la liste des operations d'un compte avec son id</t>
-  </si>
-  <si>
-    <t>/operations/{idCompte}</t>
-  </si>
-  <si>
-    <t>/compte/{idCompte}</t>
-  </si>
-  <si>
-    <t>/comptes/{idCompte}</t>
+    <t>demandeInscription</t>
+  </si>
+  <si>
+    <t>Objet&lt;DemandeInscription&gt;</t>
+  </si>
+  <si>
+    <t>createMessagePublic</t>
+  </si>
+  <si>
+    <t>Objet&lt;Message Public&gt;</t>
+  </si>
+  <si>
+    <t>/public</t>
+  </si>
+  <si>
+    <t>/adhesion</t>
+  </si>
+  <si>
+    <t>/message</t>
+  </si>
+  <si>
+    <t>Authentifier un utilisateur</t>
+  </si>
+  <si>
+    <t>Réaliser une demande d'adhésion</t>
+  </si>
+  <si>
+    <t>Emettre un message à un conseiller</t>
   </si>
 </sst>
 </file>
@@ -811,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -838,9 +845,21 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -850,57 +869,36 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -910,12 +908,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -932,6 +924,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1261,15 +1262,15 @@
       <c r="D1" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1289,13 +1290,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1306,20 +1307,20 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="21" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="7" t="s">
         <v>56</v>
       </c>
@@ -1328,9 +1329,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1339,9 +1340,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="7" t="s">
         <v>98</v>
       </c>
@@ -1350,35 +1351,35 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="15" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="7" t="s">
         <v>111</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1389,9 +1390,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
@@ -1400,9 +1401,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="8" t="s">
         <v>109</v>
       </c>
@@ -1411,13 +1412,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1428,9 +1429,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1439,9 +1440,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
@@ -1450,13 +1451,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -1467,9 +1468,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="8" t="s">
         <v>104</v>
       </c>
@@ -1478,9 +1479,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="8" t="s">
         <v>32</v>
       </c>
@@ -1489,20 +1490,20 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="9" t="s">
         <v>33</v>
       </c>
@@ -1511,37 +1512,37 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="16" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="7" t="s">
         <v>16</v>
       </c>
@@ -1550,9 +1551,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="7" t="s">
         <v>17</v>
       </c>
@@ -1561,9 +1562,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="7" t="s">
         <v>94</v>
       </c>
@@ -1572,37 +1573,37 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="17" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="8" t="s">
         <v>20</v>
       </c>
@@ -1611,9 +1612,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1622,37 +1623,37 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="16" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="7" t="s">
         <v>77</v>
       </c>
@@ -1661,9 +1662,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="7" t="s">
         <v>102</v>
       </c>
@@ -1672,9 +1673,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="7" t="s">
         <v>37</v>
       </c>
@@ -1683,9 +1684,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="7" t="s">
         <v>39</v>
       </c>
@@ -1694,9 +1695,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="7" t="s">
         <v>38</v>
       </c>
@@ -1705,37 +1706,37 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="17" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="8" t="s">
         <v>40</v>
       </c>
@@ -1744,37 +1745,37 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="16" t="s">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="7" t="s">
         <v>42</v>
       </c>
@@ -1783,13 +1784,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -1800,9 +1801,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="8" t="s">
         <v>53</v>
       </c>
@@ -1811,9 +1812,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="8" t="s">
         <v>49</v>
       </c>
@@ -1822,9 +1823,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="8" t="s">
         <v>107</v>
       </c>
@@ -1850,13 +1851,13 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -1867,9 +1868,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="8" t="s">
         <v>46</v>
       </c>
@@ -1895,13 +1896,13 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -1912,9 +1913,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="8" t="s">
         <v>89</v>
       </c>
@@ -1923,9 +1924,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="8" t="s">
         <v>90</v>
       </c>
@@ -1934,9 +1935,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="8" t="s">
         <v>91</v>
       </c>
@@ -1979,13 +1980,13 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="7" t="s">
@@ -1996,9 +1997,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="7" t="s">
         <v>52</v>
       </c>
@@ -2007,9 +2008,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="7" t="s">
         <v>59</v>
       </c>
@@ -2018,9 +2019,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="7" t="s">
         <v>53</v>
       </c>
@@ -2114,13 +2115,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -2165,13 +2166,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D71" s="8" t="s">
@@ -2182,9 +2183,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="8" t="s">
         <v>71</v>
       </c>
@@ -2193,13 +2194,13 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D73" s="7" t="s">
@@ -2210,9 +2211,9 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="7" t="s">
         <v>16</v>
       </c>
@@ -2221,9 +2222,9 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="7" t="s">
         <v>17</v>
       </c>
@@ -2232,9 +2233,9 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="7" t="s">
         <v>19</v>
       </c>
@@ -2261,38 +2262,12 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="C59:C62"/>
@@ -2302,12 +2277,38 @@
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2331,7 +2332,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.95" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2339,157 +2340,157 @@
       <c r="E1" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="B10" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="22" t="s">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>151</v>
+      <c r="D12" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2679,7 +2680,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2688,13 +2689,13 @@
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.95" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2702,340 +2703,356 @@
       <c r="E1" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="20" t="s">
+      <c r="E7" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="C9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="25" t="s">
+      <c r="C23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="26" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="26" t="s">
+      <c r="C26" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3063,39 +3080,33 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A10:A23"/>
+    <mergeCell ref="A5:A9"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3103,20 +3114,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="35.140625" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.95" x14ac:dyDescent="0.25">
@@ -3129,514 +3140,472 @@
       <c r="E1" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="37" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="31" t="s">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="D11" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="F14" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F15" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="F19" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="F21" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="31" t="s">
+      <c r="F22" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="25" t="s">
+      <c r="F23" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="G22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="26" t="s">
+      <c r="G24" s="18" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>177</v>
-      </c>
+      <c r="H24" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>120</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3644,7 +3613,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3654,7 +3623,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3664,7 +3633,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3672,9 +3641,9 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3682,105 +3651,30 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="1"/>
+      <c r="H33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="20">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="B8:B21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A15:A28"/>
-    <mergeCell ref="B15:B28"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>

--- a/Conception/GestiBank - Modeles et Services.xlsx
+++ b/Conception/GestiBank - Modeles et Services.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/Conception/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C32C8BA-610D-5042-8E3A-830E04CD2672}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28755" windowHeight="16395"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28760" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modèles" sheetId="2" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="221">
   <si>
     <t>Nom</t>
   </si>
@@ -652,11 +658,47 @@
   <si>
     <t>Emettre un message à un conseiller</t>
   </si>
+  <si>
+    <t>EspaceClientService</t>
+  </si>
+  <si>
+    <t>/client</t>
+  </si>
+  <si>
+    <t>/comptes/{idClient}</t>
+  </si>
+  <si>
+    <t>findCompteById</t>
+  </si>
+  <si>
+    <t>Rechercher les comptes d'un client</t>
+  </si>
+  <si>
+    <t>findOperationById</t>
+  </si>
+  <si>
+    <t>Rechercher les operations d'un compte</t>
+  </si>
+  <si>
+    <t>Objet&lt;Message Client&gt;</t>
+  </si>
+  <si>
+    <t>createMessageClient</t>
+  </si>
+  <si>
+    <t>findClientById</t>
+  </si>
+  <si>
+    <t>Rechercher un client</t>
+  </si>
+  <si>
+    <t>EspaceClientController</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -818,21 +860,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -887,9 +917,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -899,13 +926,34 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -924,15 +972,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -996,7 +1035,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1029,9 +1068,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1064,6 +1120,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1239,1035 +1312,1061 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="17" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="12" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="7" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="9" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="8" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="7" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="8" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="8" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="8" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="9" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="13" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="7" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="7" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="7" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="14" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="8" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="8" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="13" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="7" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="7" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="7" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="7" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="7" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="14" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="8" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="13" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="7" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="8" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="8" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="8" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="8" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="8" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="8" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="8" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="7" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="7" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="7" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="8" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="7" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="7" t="s">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="7" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="4" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="C59:C62"/>
@@ -2277,38 +2376,12 @@
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2316,357 +2389,182 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.95" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="15" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="15" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="14" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2679,988 +2577,1013 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.95" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="11" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="18" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="18" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="37" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="18" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="18" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="18" t="s">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="18" t="s">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="37" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="30" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="18" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="18" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="23" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="B25" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="19" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="29"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A10:A23"/>
+  <mergeCells count="12">
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A10:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="32" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="10" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="21" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="21" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="28" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="17" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="21" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="21" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="21" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="22" t="s">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="18" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="21" t="s">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="28" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="17" t="s">
         <v>170</v>
       </c>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="18" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="18" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="1"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A8:A21"/>
-    <mergeCell ref="B8:B21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C19:C20"/>
+  <mergeCells count="22">
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="H12:H13"/>
@@ -3669,15 +3592,15 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="B8:B21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Conception/GestiBank - Modeles et Services.xlsx
+++ b/Conception/GestiBank - Modeles et Services.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/Conception/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C32C8BA-610D-5042-8E3A-830E04CD2672}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28760" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28755" windowHeight="16395"/>
   </bookViews>
   <sheets>
     <sheet name="Modèles" sheetId="2" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="228">
   <si>
     <t>Nom</t>
   </si>
@@ -686,19 +680,42 @@
     <t>createMessageClient</t>
   </si>
   <si>
-    <t>findClientById</t>
-  </si>
-  <si>
     <t>Rechercher un client</t>
   </si>
   <si>
     <t>EspaceClientController</t>
+  </si>
+  <si>
+    <t>Rechercher un client avec son nomUtilisateur</t>
+  </si>
+  <si>
+    <t>getClientById</t>
+  </si>
+  <si>
+    <t>createDemandeChequier</t>
+  </si>
+  <si>
+    <t>/demandechequier/{idClient}</t>
+  </si>
+  <si>
+    <t>Emettre une demande d'obtention de chéquier</t>
+  </si>
+  <si>
+    <t>createDemandeRib</t>
+  </si>
+  <si>
+    <t>idClient
+Objet&lt;DemandeChequier&gt;</t>
+  </si>
+  <si>
+    <t>idClient
+Objet&lt;DemandeRIB&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,7 +775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -785,43 +802,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -831,36 +811,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,9 +829,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -905,25 +858,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -938,40 +873,22 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1035,7 +952,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1068,26 +985,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1120,23 +1020,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1312,21 +1195,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,18 +1217,18 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1362,14 +1245,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1379,21 +1262,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="13" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
@@ -1401,10 +1284,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1412,10 +1295,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="3" t="s">
         <v>98</v>
       </c>
@@ -1423,21 +1306,21 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="3" t="s">
         <v>111</v>
       </c>
@@ -1445,14 +1328,14 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1462,10 +1345,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
@@ -1473,10 +1356,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="4" t="s">
         <v>109</v>
       </c>
@@ -1484,14 +1367,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1501,10 +1384,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1512,10 +1395,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1523,14 +1406,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1540,10 +1423,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="4" t="s">
         <v>104</v>
       </c>
@@ -1551,10 +1434,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1562,10 +1445,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="4" t="s">
         <v>101</v>
       </c>
@@ -1573,10 +1456,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
@@ -1584,38 +1467,38 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="9" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1623,10 +1506,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="3" t="s">
         <v>17</v>
       </c>
@@ -1634,10 +1517,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="3" t="s">
         <v>94</v>
       </c>
@@ -1645,14 +1528,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1662,21 +1545,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="10" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="4" t="s">
         <v>20</v>
       </c>
@@ -1684,10 +1567,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="4" t="s">
         <v>28</v>
       </c>
@@ -1695,14 +1578,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -1712,21 +1595,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="9" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="3" t="s">
         <v>77</v>
       </c>
@@ -1734,10 +1617,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="3" t="s">
         <v>102</v>
       </c>
@@ -1745,10 +1628,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="3" t="s">
         <v>37</v>
       </c>
@@ -1756,10 +1639,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="3" t="s">
         <v>39</v>
       </c>
@@ -1767,10 +1650,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="3" t="s">
         <v>38</v>
       </c>
@@ -1778,38 +1661,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="10" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="4" t="s">
         <v>40</v>
       </c>
@@ -1817,38 +1700,38 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="9" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="3" t="s">
         <v>42</v>
       </c>
@@ -1856,14 +1739,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -1873,10 +1756,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="4" t="s">
         <v>53</v>
       </c>
@@ -1884,10 +1767,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="4" t="s">
         <v>49</v>
       </c>
@@ -1895,10 +1778,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="4" t="s">
         <v>107</v>
       </c>
@@ -1906,7 +1789,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>80</v>
       </c>
@@ -1923,14 +1806,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -1940,10 +1823,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="4" t="s">
         <v>46</v>
       </c>
@@ -1951,7 +1834,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>83</v>
       </c>
@@ -1968,14 +1851,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -1985,10 +1868,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="4" t="s">
         <v>89</v>
       </c>
@@ -1996,10 +1879,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="4" t="s">
         <v>90</v>
       </c>
@@ -2007,10 +1890,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="4" t="s">
         <v>91</v>
       </c>
@@ -2018,7 +1901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>84</v>
       </c>
@@ -2035,7 +1918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>85</v>
       </c>
@@ -2052,14 +1935,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -2069,10 +1952,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="3" t="s">
         <v>52</v>
       </c>
@@ -2080,10 +1963,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="3" t="s">
         <v>59</v>
       </c>
@@ -2091,10 +1974,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="3" t="s">
         <v>53</v>
       </c>
@@ -2102,7 +1985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>54</v>
       </c>
@@ -2119,7 +2002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
@@ -2136,7 +2019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>93</v>
       </c>
@@ -2153,7 +2036,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
@@ -2170,7 +2053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
@@ -2187,14 +2070,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -2204,7 +2087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
@@ -2221,7 +2104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>108</v>
       </c>
@@ -2238,14 +2121,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="24" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -2255,10 +2138,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="4" t="s">
         <v>71</v>
       </c>
@@ -2266,14 +2149,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -2283,10 +2166,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2294,10 +2177,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="3" t="s">
         <v>17</v>
       </c>
@@ -2305,10 +2188,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="3" t="s">
         <v>19</v>
       </c>
@@ -2316,7 +2199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
@@ -2335,38 +2218,12 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="C59:C62"/>
@@ -2376,12 +2233,38 @@
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2389,21 +2272,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -2412,157 +2295,157 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="11" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2577,21 +2460,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -2600,456 +2483,516 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="7" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="14" t="s">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="14" t="s">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="30" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D15" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E15" s="25" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="14" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="14" t="s">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="14" t="s">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="14" t="s">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="14" t="s">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D22" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E22" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="14" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="14" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
+    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B25" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="19" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>200</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>202</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>119</v>
       </c>
       <c r="E26" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B28" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D27" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E28" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="14" t="s">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E29" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="14" t="s">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E30" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="14" t="s">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E31" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A27:A30"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A10:A23"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A10:A24"/>
+    <mergeCell ref="A28:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3062,545 +3005,611 @@
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="34" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="6" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D10" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E10" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F10" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H10" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="17" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E11" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F11" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H11" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="17" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D12" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F12" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H12" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D13" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E13" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F13" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H13" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="17" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="17" t="s">
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D15" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E15" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F15" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H15" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="17" t="s">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D16" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E16" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F16" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H16" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="17" t="s">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D17" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E17" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F17" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H17" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="18" t="s">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E18" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H18" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="17" t="s">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D19" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E19" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F19" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G19" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H19" s="19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="27" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D20" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E20" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F20" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G20" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H20" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="17" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="17" t="s">
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D22" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E22" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F22" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H22" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+    <row r="23" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H23" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="14" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H24" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="14" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B25" s="27" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C26" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="E25" s="22" t="s">
+      <c r="E29" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F29" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H29" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E28" s="22" t="s">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="H28" s="20" t="s">
+      <c r="F30" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H31" s="16" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="B8:B22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A8:A21"/>
-    <mergeCell ref="B8:B21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Conception/GestiBank - Modeles et Services.xlsx
+++ b/Conception/GestiBank - Modeles et Services.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/Conception/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79BF229D-B413-5244-AC62-38622780A405}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28755" windowHeight="16395"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28760" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modèles" sheetId="2" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="249">
   <si>
     <t>Nom</t>
   </si>
@@ -613,6 +619,169 @@
   </si>
   <si>
     <t>EspacePublicController</t>
+  </si>
+  <si>
+    <t>demandeInscription</t>
+  </si>
+  <si>
+    <t>Objet&lt;DemandeInscription&gt;</t>
+  </si>
+  <si>
+    <t>createMessagePublic</t>
+  </si>
+  <si>
+    <t>Objet&lt;Message Public&gt;</t>
+  </si>
+  <si>
+    <t>/public</t>
+  </si>
+  <si>
+    <t>/adhesion</t>
+  </si>
+  <si>
+    <t>/message</t>
+  </si>
+  <si>
+    <t>Authentifier un utilisateur</t>
+  </si>
+  <si>
+    <t>Réaliser une demande d'adhésion</t>
+  </si>
+  <si>
+    <t>Emettre un message à un conseiller</t>
+  </si>
+  <si>
+    <t>EspaceClientService</t>
+  </si>
+  <si>
+    <t>/client</t>
+  </si>
+  <si>
+    <t>/comptes/{idClient}</t>
+  </si>
+  <si>
+    <t>findCompteById</t>
+  </si>
+  <si>
+    <t>Rechercher les comptes d'un client</t>
+  </si>
+  <si>
+    <t>findOperationById</t>
+  </si>
+  <si>
+    <t>Rechercher les operations d'un compte</t>
+  </si>
+  <si>
+    <t>Objet&lt;Message Client&gt;</t>
+  </si>
+  <si>
+    <t>createMessageClient</t>
+  </si>
+  <si>
+    <t>Rechercher un client</t>
+  </si>
+  <si>
+    <t>EspaceClientController</t>
+  </si>
+  <si>
+    <t>Rechercher un client avec son nomUtilisateur</t>
+  </si>
+  <si>
+    <t>getClientById</t>
+  </si>
+  <si>
+    <t>createDemandeChequier</t>
+  </si>
+  <si>
+    <t>/demandechequier/{idClient}</t>
+  </si>
+  <si>
+    <t>Emettre une demande d'obtention de chéquier</t>
+  </si>
+  <si>
+    <t>createDemandeRib</t>
+  </si>
+  <si>
+    <t>idClient
+Objet&lt;DemandeChequier&gt;</t>
+  </si>
+  <si>
+    <t>idClient
+Objet&lt;DemandeRIB&gt;</t>
+  </si>
+  <si>
+    <t>EspaceAdminController</t>
+  </si>
+  <si>
+    <t>/admin</t>
+  </si>
+  <si>
+    <t>/conseillers/{idAdmin]</t>
+  </si>
+  <si>
+    <t>idAdmin</t>
+  </si>
+  <si>
+    <t>findAllConseillers</t>
+  </si>
+  <si>
+    <t>Rechercher tous les conseillers d'un admin</t>
+  </si>
+  <si>
+    <t>Rechercher toutes les demandes d'un admin</t>
+  </si>
+  <si>
+    <t>/demandes/{idAdmin]</t>
+  </si>
+  <si>
+    <t>HashTable&lt;typeDemande, Liste Objet&lt;Demande&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Liste&lt;Objet DemandeInscription&gt;</t>
+  </si>
+  <si>
+    <t>affectDemandeInscription</t>
+  </si>
+  <si>
+    <t>/demandes</t>
+  </si>
+  <si>
+    <t>Tableau :
+- idDemande
+- idAdmin
+- idConseiller</t>
+  </si>
+  <si>
+    <t>/dashboard/{idAdmin]</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>Affecter une demande d'inscription à un conseiller</t>
+  </si>
+  <si>
+    <t>Récuperer les informations à afficher au niveau du dashboard</t>
+  </si>
+  <si>
+    <t>Tableau :
+- prenom
+- nom
+- nombre de conseillers
+- nombre de demandes</t>
+  </si>
+  <si>
+    <t>Tableau :
+- prenom
+- nom
+- nombre de clients
+- nombre de demandes</t>
+  </si>
+  <si>
+    <t>/dashboard/{idConseiller]</t>
+  </si>
+  <si>
+    <t>EspaceAdminService</t>
   </si>
   <si>
     <t>Tableau :
@@ -620,102 +789,15 @@
 - mdpValide
 - idUtilisateur
 - nomUtilisateur
-- typeUtilisateur</t>
-  </si>
-  <si>
-    <t>demandeInscription</t>
-  </si>
-  <si>
-    <t>Objet&lt;DemandeInscription&gt;</t>
-  </si>
-  <si>
-    <t>createMessagePublic</t>
-  </si>
-  <si>
-    <t>Objet&lt;Message Public&gt;</t>
-  </si>
-  <si>
-    <t>/public</t>
-  </si>
-  <si>
-    <t>/adhesion</t>
-  </si>
-  <si>
-    <t>/message</t>
-  </si>
-  <si>
-    <t>Authentifier un utilisateur</t>
-  </si>
-  <si>
-    <t>Réaliser une demande d'adhésion</t>
-  </si>
-  <si>
-    <t>Emettre un message à un conseiller</t>
-  </si>
-  <si>
-    <t>EspaceClientService</t>
-  </si>
-  <si>
-    <t>/client</t>
-  </si>
-  <si>
-    <t>/comptes/{idClient}</t>
-  </si>
-  <si>
-    <t>findCompteById</t>
-  </si>
-  <si>
-    <t>Rechercher les comptes d'un client</t>
-  </si>
-  <si>
-    <t>findOperationById</t>
-  </si>
-  <si>
-    <t>Rechercher les operations d'un compte</t>
-  </si>
-  <si>
-    <t>Objet&lt;Message Client&gt;</t>
-  </si>
-  <si>
-    <t>createMessageClient</t>
-  </si>
-  <si>
-    <t>Rechercher un client</t>
-  </si>
-  <si>
-    <t>EspaceClientController</t>
-  </si>
-  <si>
-    <t>Rechercher un client avec son nomUtilisateur</t>
-  </si>
-  <si>
-    <t>getClientById</t>
-  </si>
-  <si>
-    <t>createDemandeChequier</t>
-  </si>
-  <si>
-    <t>/demandechequier/{idClient}</t>
-  </si>
-  <si>
-    <t>Emettre une demande d'obtention de chéquier</t>
-  </si>
-  <si>
-    <t>createDemandeRib</t>
-  </si>
-  <si>
-    <t>idClient
-Objet&lt;DemandeChequier&gt;</t>
-  </si>
-  <si>
-    <t>idClient
-Objet&lt;DemandeRIB&gt;</t>
+- typeUtilisateur
+- nom
+- prenom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -775,7 +857,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -811,12 +893,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,7 +979,10 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,13 +991,34 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -952,7 +1082,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,9 +1115,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,6 +1167,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1195,21 +1359,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,18 +1381,18 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1245,14 +1409,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1262,10 +1426,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="12" t="s">
         <v>53</v>
       </c>
@@ -1273,10 +1437,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
@@ -1284,10 +1448,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1295,10 +1459,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="3" t="s">
         <v>98</v>
       </c>
@@ -1306,10 +1470,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="7" t="s">
         <v>100</v>
       </c>
@@ -1317,10 +1481,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="3" t="s">
         <v>111</v>
       </c>
@@ -1328,14 +1492,14 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1345,10 +1509,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
@@ -1356,10 +1520,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="4" t="s">
         <v>109</v>
       </c>
@@ -1367,14 +1531,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1384,10 +1548,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1395,10 +1559,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1406,14 +1570,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1423,10 +1587,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="4" t="s">
         <v>104</v>
       </c>
@@ -1434,10 +1598,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1445,10 +1609,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="4" t="s">
         <v>101</v>
       </c>
@@ -1456,10 +1620,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
@@ -1467,14 +1631,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1484,10 +1648,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
@@ -1495,10 +1659,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1506,10 +1670,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="3" t="s">
         <v>17</v>
       </c>
@@ -1517,10 +1681,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="3" t="s">
         <v>94</v>
       </c>
@@ -1528,14 +1692,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1545,10 +1709,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="9" t="s">
         <v>19</v>
       </c>
@@ -1556,10 +1720,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="4" t="s">
         <v>20</v>
       </c>
@@ -1567,10 +1731,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="4" t="s">
         <v>28</v>
       </c>
@@ -1578,14 +1742,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -1595,10 +1759,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="8" t="s">
         <v>36</v>
       </c>
@@ -1606,10 +1770,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="3" t="s">
         <v>77</v>
       </c>
@@ -1617,10 +1781,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="3" t="s">
         <v>102</v>
       </c>
@@ -1628,10 +1792,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="3" t="s">
         <v>37</v>
       </c>
@@ -1639,10 +1803,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="3" t="s">
         <v>39</v>
       </c>
@@ -1650,10 +1814,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="3" t="s">
         <v>38</v>
       </c>
@@ -1661,14 +1825,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -1678,10 +1842,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="9" t="s">
         <v>41</v>
       </c>
@@ -1689,10 +1853,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="4" t="s">
         <v>40</v>
       </c>
@@ -1700,14 +1864,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -1717,10 +1881,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="8" t="s">
         <v>79</v>
       </c>
@@ -1728,10 +1892,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="3" t="s">
         <v>42</v>
       </c>
@@ -1739,14 +1903,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -1756,10 +1920,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="4" t="s">
         <v>53</v>
       </c>
@@ -1767,10 +1931,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="4" t="s">
         <v>49</v>
       </c>
@@ -1778,10 +1942,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="4" t="s">
         <v>107</v>
       </c>
@@ -1789,7 +1953,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>80</v>
       </c>
@@ -1806,14 +1970,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="23" t="s">
         <v>43</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -1823,10 +1987,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="4" t="s">
         <v>46</v>
       </c>
@@ -1834,7 +1998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>83</v>
       </c>
@@ -1851,14 +2015,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -1868,10 +2032,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="4" t="s">
         <v>89</v>
       </c>
@@ -1879,10 +2043,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="4" t="s">
         <v>90</v>
       </c>
@@ -1890,10 +2054,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="4" t="s">
         <v>91</v>
       </c>
@@ -1901,7 +2065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>84</v>
       </c>
@@ -1918,7 +2082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>85</v>
       </c>
@@ -1935,14 +2099,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -1952,10 +2116,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
       <c r="D60" s="3" t="s">
         <v>52</v>
       </c>
@@ -1963,10 +2127,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="3" t="s">
         <v>59</v>
       </c>
@@ -1974,10 +2138,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="3" t="s">
         <v>53</v>
       </c>
@@ -1985,7 +2149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>54</v>
       </c>
@@ -2002,7 +2166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
@@ -2019,7 +2183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>93</v>
       </c>
@@ -2036,7 +2200,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
@@ -2053,7 +2217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
@@ -2070,7 +2234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>92</v>
       </c>
@@ -2087,7 +2251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
@@ -2104,7 +2268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>108</v>
       </c>
@@ -2121,14 +2285,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -2138,10 +2302,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="4" t="s">
         <v>71</v>
       </c>
@@ -2149,14 +2313,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -2166,10 +2330,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
       <c r="D74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2177,10 +2341,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="3" t="s">
         <v>17</v>
       </c>
@@ -2188,10 +2352,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="3" t="s">
         <v>19</v>
       </c>
@@ -2199,7 +2363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
@@ -2218,12 +2382,38 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="C59:C62"/>
@@ -2233,38 +2423,12 @@
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2272,21 +2436,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -2295,19 +2459,19 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -2321,8 +2485,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2338,8 +2502,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
       <c r="B6" s="11" t="s">
         <v>130</v>
       </c>
@@ -2353,8 +2517,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
       <c r="B7" s="11" t="s">
         <v>137</v>
       </c>
@@ -2368,8 +2532,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
       <c r="B8" s="11" t="s">
         <v>138</v>
       </c>
@@ -2383,8 +2547,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
       <c r="B9" s="11" t="s">
         <v>136</v>
       </c>
@@ -2460,21 +2624,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -2483,19 +2647,19 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -2509,8 +2673,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -2526,8 +2690,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
       <c r="B6" s="19" t="s">
         <v>130</v>
       </c>
@@ -2541,8 +2705,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
       <c r="B7" s="19" t="s">
         <v>137</v>
       </c>
@@ -2556,8 +2720,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
       <c r="B8" s="19" t="s">
         <v>138</v>
       </c>
@@ -2571,8 +2735,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
       <c r="B9" s="19" t="s">
         <v>136</v>
       </c>
@@ -2586,8 +2750,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
         <v>157</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2603,8 +2767,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
       <c r="B11" s="13" t="s">
         <v>153</v>
       </c>
@@ -2615,11 +2779,11 @@
         <v>62</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
       <c r="B12" s="13" t="s">
         <v>159</v>
       </c>
@@ -2633,8 +2797,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
       <c r="B13" s="13" t="s">
         <v>160</v>
       </c>
@@ -2648,8 +2812,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
       <c r="B14" s="13" t="s">
         <v>167</v>
       </c>
@@ -2663,32 +2827,32 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26" t="s">
         <v>169</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="26" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
       <c r="B17" s="13" t="s">
         <v>161</v>
       </c>
@@ -2702,8 +2866,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
       <c r="B18" s="13" t="s">
         <v>162</v>
       </c>
@@ -2717,8 +2881,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
       <c r="B19" s="13" t="s">
         <v>168</v>
       </c>
@@ -2732,8 +2896,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
       <c r="B20" s="13" t="s">
         <v>188</v>
       </c>
@@ -2747,8 +2911,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
       <c r="B21" s="13" t="s">
         <v>163</v>
       </c>
@@ -2762,32 +2926,32 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26" t="s">
         <v>164</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
       <c r="B24" s="13" t="s">
         <v>165</v>
       </c>
@@ -2801,8 +2965,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
         <v>196</v>
       </c>
       <c r="B25" s="19" t="s">
@@ -2812,51 +2976,51 @@
         <v>156</v>
       </c>
       <c r="D25" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>199</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>200</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>119</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
       <c r="B27" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>202</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>119</v>
       </c>
       <c r="E27" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>209</v>
-      </c>
       <c r="B28" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>44</v>
@@ -2865,13 +3029,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
       <c r="B29" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>44</v>
@@ -2880,13 +3044,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
       <c r="B30" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>45</v>
@@ -2895,28 +3059,28 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="26"/>
       <c r="B31" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="26"/>
       <c r="B32" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>44</v>
@@ -2925,74 +3089,137 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="26"/>
       <c r="B33" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="26"/>
       <c r="B34" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>119</v>
       </c>
     </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="32"/>
+      <c r="B36" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A10:A24"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A10:A24"/>
-    <mergeCell ref="A28:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3005,45 +3232,45 @@
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="18" t="s">
         <v>0</v>
       </c>
@@ -3063,11 +3290,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="25" t="s">
         <v>183</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -3089,14 +3316,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>153</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>114</v>
@@ -3111,9 +3338,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="19" t="s">
         <v>159</v>
       </c>
@@ -3133,9 +3360,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>160</v>
       </c>
@@ -3155,9 +3382,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>167</v>
       </c>
@@ -3177,43 +3404,43 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="25" t="s">
         <v>186</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>161</v>
       </c>
@@ -3233,9 +3460,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="19" t="s">
         <v>162</v>
       </c>
@@ -3255,9 +3482,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>168</v>
       </c>
@@ -3277,9 +3504,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>188</v>
       </c>
@@ -3299,9 +3526,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="19" t="s">
         <v>163</v>
       </c>
@@ -3318,279 +3545,389 @@
         <v>166</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="25" t="s">
         <v>187</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="19" t="s">
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="13" t="s">
+      <c r="B24" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="13" t="s">
-        <v>199</v>
-      </c>
       <c r="D24" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>114</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>114</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" s="19" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>215</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>113</v>
       </c>
       <c r="F27" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H28" s="16" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="19" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="19" t="s">
+      <c r="E30" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>114</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>119</v>
       </c>
     </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A8:A22"/>
-    <mergeCell ref="B8:B22"/>
+  <mergeCells count="24">
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B3:D3"/>
@@ -3607,9 +3944,15 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A8:A23"/>
+    <mergeCell ref="B8:B23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
